--- a/CustomerCare.xlsx
+++ b/CustomerCare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bonfiglio\Desktop\gitHub\dasff2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65802A4E-9051-4BFB-998B-D274F1234326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9881B5F0-92CA-4839-BAB3-D903604C78ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="4" xr2:uid="{A3CF8747-1DF7-4DC4-ABAF-7545613FEB50}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="5" xr2:uid="{A3CF8747-1DF7-4DC4-ABAF-7545613FEB50}"/>
   </bookViews>
   <sheets>
     <sheet name="Main view CC" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="CR Storico acquisti" sheetId="5" r:id="rId3"/>
     <sheet name="Storico acquisti CC" sheetId="4" r:id="rId4"/>
     <sheet name="Classe Cliente" sheetId="3" r:id="rId5"/>
+    <sheet name="Tabella Cliente" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
   <si>
     <t xml:space="preserve">Filtro </t>
   </si>
@@ -233,6 +234,90 @@
   </si>
   <si>
     <t>CR  acquisti</t>
+  </si>
+  <si>
+    <t>KUNNR</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>Codice cliente</t>
+  </si>
+  <si>
+    <t>LAND1</t>
+  </si>
+  <si>
+    <t>Chiave paese/regione</t>
+  </si>
+  <si>
+    <t>NAME1</t>
+  </si>
+  <si>
+    <t>Nome 1</t>
+  </si>
+  <si>
+    <t>NAME2</t>
+  </si>
+  <si>
+    <t>Nome 2</t>
+  </si>
+  <si>
+    <t>ORT01</t>
+  </si>
+  <si>
+    <t>Città</t>
+  </si>
+  <si>
+    <t>PSTLZ</t>
+  </si>
+  <si>
+    <t>Codice di avviamento postale</t>
+  </si>
+  <si>
+    <t>STRAS</t>
+  </si>
+  <si>
+    <t>Via e numero civico</t>
+  </si>
+  <si>
+    <t>TELF1</t>
+  </si>
+  <si>
+    <t>Primo numero di telefono</t>
+  </si>
+  <si>
+    <t>ERDAT</t>
+  </si>
+  <si>
+    <t>DATS</t>
+  </si>
+  <si>
+    <t>Data di inserimento record</t>
+  </si>
+  <si>
+    <t>ERNAM</t>
+  </si>
+  <si>
+    <t>Nome dell'utente che ha inserito l'oggetto</t>
+  </si>
+  <si>
+    <t>STCD1</t>
+  </si>
+  <si>
+    <t>Partita IVA 1</t>
+  </si>
+  <si>
+    <t>Indirizzo e-mail</t>
+  </si>
+  <si>
+    <t>MAIL</t>
+  </si>
+  <si>
+    <t>PEC</t>
+  </si>
+  <si>
+    <t>NOTE</t>
   </si>
 </sst>
 </file>
@@ -348,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -358,14 +443,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1635,10 +1719,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
         <v>40</v>
@@ -1699,24 +1783,24 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
       <c r="N5" s="8"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1726,61 +1810,61 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="R8" t="s">
@@ -1789,151 +1873,151 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
@@ -2143,24 +2227,24 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
       <c r="N5" s="8"/>
       <c r="O5" s="1" t="s">
         <v>55</v>
@@ -2174,19 +2258,19 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" t="s">
@@ -2218,24 +2302,24 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1" t="s">
         <v>55</v>
@@ -2246,19 +2330,19 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
@@ -2284,24 +2368,24 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
       <c r="N11" s="8"/>
       <c r="O11" s="1" t="s">
         <v>55</v>
@@ -2312,57 +2396,57 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="16">
+      <c r="M14" s="1"/>
+      <c r="N14" s="15">
         <v>300</v>
       </c>
       <c r="O14" s="1"/>
@@ -2370,37 +2454,37 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
@@ -2410,11 +2494,11 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2934,7 +3018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBEAEAE-8D13-4B9B-B218-E631D90CA857}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -2977,7 +3061,7 @@
       <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -2992,6 +3076,217 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A397EB-F2E0-475E-8EEA-705D194CE330}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12">
+        <v>241</v>
+      </c>
+      <c r="G12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13">
+        <v>241</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14">
+        <v>255</v>
+      </c>
+      <c r="G14" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
